--- a/pred_ohlcv/54_23/2019-10-15 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-15 PPT ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>613</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>614</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -783,10 +783,10 @@
         <v>614</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -806,10 +806,10 @@
         <v>612</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>617</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -990,10 +990,10 @@
         <v>612</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1059,10 +1059,10 @@
         <v>610</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1174,7 +1174,7 @@
         <v>602</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>602</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>602</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>611</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1381,10 +1381,10 @@
         <v>612</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1542,10 +1542,10 @@
         <v>613</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1565,10 +1565,10 @@
         <v>615</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1588,10 +1588,10 @@
         <v>613</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1611,10 +1611,10 @@
         <v>614</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1634,10 +1634,10 @@
         <v>615</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1841,7 +1841,7 @@
         <v>627</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>627</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -1910,10 +1910,10 @@
         <v>620</v>
       </c>
       <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>2</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1933,10 +1933,10 @@
         <v>621</v>
       </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>2</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1956,10 +1956,10 @@
         <v>621</v>
       </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>2</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1979,10 +1979,10 @@
         <v>621</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2002,10 +2002,10 @@
         <v>622</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2048,10 +2048,10 @@
         <v>625</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2094,10 +2094,10 @@
         <v>627</v>
       </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>2</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2117,10 +2117,10 @@
         <v>629</v>
       </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>2</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2232,10 +2232,10 @@
         <v>621</v>
       </c>
       <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2255,10 +2255,10 @@
         <v>622</v>
       </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>2</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2462,10 +2462,10 @@
         <v>615</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2485,10 +2485,10 @@
         <v>615</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2508,10 +2508,10 @@
         <v>615</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2531,10 +2531,10 @@
         <v>615</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2600,10 +2600,10 @@
         <v>611</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2623,10 +2623,10 @@
         <v>607</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2646,10 +2646,10 @@
         <v>607</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2669,10 +2669,10 @@
         <v>607</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2715,10 +2715,10 @@
         <v>612</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2738,10 +2738,10 @@
         <v>608</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2761,10 +2761,10 @@
         <v>609</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2830,10 +2830,10 @@
         <v>609</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2853,10 +2853,10 @@
         <v>610</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2876,10 +2876,10 @@
         <v>610</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2922,10 +2922,10 @@
         <v>607</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2945,10 +2945,10 @@
         <v>606</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2968,10 +2968,10 @@
         <v>611</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3642,6 +3642,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>